--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.825263333333334</v>
+        <v>10.48138333333333</v>
       </c>
       <c r="H2">
-        <v>29.47579</v>
+        <v>31.44415</v>
       </c>
       <c r="I2">
-        <v>0.02592230525843099</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="J2">
-        <v>0.025922305258431</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N2">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P2">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q2">
-        <v>328.3385834929456</v>
+        <v>358.4013091237889</v>
       </c>
       <c r="R2">
-        <v>2955.047251436511</v>
+        <v>3225.6117821141</v>
       </c>
       <c r="S2">
-        <v>0.004077037304760261</v>
+        <v>0.00374305660634523</v>
       </c>
       <c r="T2">
-        <v>0.004077037304760262</v>
+        <v>0.00374305660634523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.825263333333334</v>
+        <v>10.48138333333333</v>
       </c>
       <c r="H3">
-        <v>29.47579</v>
+        <v>31.44415</v>
       </c>
       <c r="I3">
-        <v>0.02592230525843099</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="J3">
-        <v>0.025922305258431</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N3">
         <v>109.157268</v>
       </c>
       <c r="O3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P3">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q3">
-        <v>357.4996342824133</v>
+        <v>381.3730565091333</v>
       </c>
       <c r="R3">
-        <v>3217.49670854172</v>
+        <v>3432.3575085822</v>
       </c>
       <c r="S3">
-        <v>0.004439135144891872</v>
+        <v>0.00398296798116755</v>
       </c>
       <c r="T3">
-        <v>0.004439135144891874</v>
+        <v>0.00398296798116755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.825263333333334</v>
+        <v>10.48138333333333</v>
       </c>
       <c r="H4">
-        <v>29.47579</v>
+        <v>31.44415</v>
       </c>
       <c r="I4">
-        <v>0.02592230525843099</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="J4">
-        <v>0.025922305258431</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N4">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P4">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q4">
-        <v>680.5604498474356</v>
+        <v>1000.737297396311</v>
       </c>
       <c r="R4">
-        <v>6125.044048626921</v>
+        <v>9006.635676566801</v>
       </c>
       <c r="S4">
-        <v>0.008450637487238942</v>
+        <v>0.01045145834258535</v>
       </c>
       <c r="T4">
-        <v>0.008450637487238946</v>
+        <v>0.01045145834258535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.825263333333334</v>
+        <v>10.48138333333333</v>
       </c>
       <c r="H5">
-        <v>29.47579</v>
+        <v>31.44415</v>
       </c>
       <c r="I5">
-        <v>0.02592230525843099</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="J5">
-        <v>0.025922305258431</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N5">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P5">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q5">
-        <v>33.74595752256334</v>
+        <v>36.16886063413889</v>
       </c>
       <c r="R5">
-        <v>303.71361770307</v>
+        <v>325.51974570725</v>
       </c>
       <c r="S5">
-        <v>0.0004190294245674659</v>
+        <v>0.0003777388343574203</v>
       </c>
       <c r="T5">
-        <v>0.0004190294245674661</v>
+        <v>0.0003777388343574204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.825263333333334</v>
+        <v>10.48138333333333</v>
       </c>
       <c r="H6">
-        <v>29.47579</v>
+        <v>31.44415</v>
       </c>
       <c r="I6">
-        <v>0.02592230525843099</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="J6">
-        <v>0.025922305258431</v>
+        <v>0.02700589439825487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N6">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O6">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P6">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q6">
-        <v>687.4725226024356</v>
+        <v>809.1601205805832</v>
       </c>
       <c r="R6">
-        <v>6187.252703421921</v>
+        <v>7282.441085225249</v>
       </c>
       <c r="S6">
-        <v>0.008536465896972449</v>
+        <v>0.008450672633799325</v>
       </c>
       <c r="T6">
-        <v>0.008536465896972453</v>
+        <v>0.008450672633799325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1063.806427</v>
       </c>
       <c r="I7">
-        <v>0.9355581287753368</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="J7">
-        <v>0.935558128775337</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N7">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P7">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q7">
-        <v>11850.01980784473</v>
+        <v>12125.29567792738</v>
       </c>
       <c r="R7">
-        <v>106650.1782706026</v>
+        <v>109127.6611013465</v>
       </c>
       <c r="S7">
-        <v>0.1471437572300089</v>
+        <v>0.1266336560045307</v>
       </c>
       <c r="T7">
-        <v>0.1471437572300089</v>
+        <v>0.1266336560045307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1063.806427</v>
       </c>
       <c r="I8">
-        <v>0.9355581287753368</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="J8">
-        <v>0.935558128775337</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N8">
         <v>109.157268</v>
       </c>
       <c r="O8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P8">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q8">
         <v>12902.46702801794</v>
@@ -948,10 +948,10 @@
         <v>116122.2032521614</v>
       </c>
       <c r="S8">
-        <v>0.1602121774329899</v>
+        <v>0.134750245654637</v>
       </c>
       <c r="T8">
-        <v>0.16021217743299</v>
+        <v>0.134750245654637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1063.806427</v>
       </c>
       <c r="I9">
-        <v>0.9355581287753368</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="J9">
-        <v>0.935558128775337</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N9">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P9">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q9">
-        <v>24562.00768528047</v>
+        <v>33856.56055923935</v>
       </c>
       <c r="R9">
-        <v>221058.0691675242</v>
+        <v>304709.0450331542</v>
       </c>
       <c r="S9">
-        <v>0.3049907219169331</v>
+        <v>0.3535897315196964</v>
       </c>
       <c r="T9">
-        <v>0.3049907219169332</v>
+        <v>0.3535897315196964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>1063.806427</v>
       </c>
       <c r="I10">
-        <v>0.9355581287753368</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="J10">
-        <v>0.935558128775337</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N10">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P10">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q10">
-        <v>1217.920418681633</v>
+        <v>1223.651025703167</v>
       </c>
       <c r="R10">
-        <v>10961.28376813469</v>
+        <v>11012.85923132851</v>
       </c>
       <c r="S10">
-        <v>0.01512312969243511</v>
+        <v>0.012779515417555</v>
       </c>
       <c r="T10">
-        <v>0.01512312969243512</v>
+        <v>0.012779515417555</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1063.806427</v>
       </c>
       <c r="I11">
-        <v>0.9355581287753368</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="J11">
-        <v>0.935558128775337</v>
+        <v>0.9136530651248906</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N11">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O11">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P11">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q11">
-        <v>24811.47029241197</v>
+        <v>27375.19496458704</v>
       </c>
       <c r="R11">
-        <v>223303.2326317077</v>
+        <v>246376.7546812833</v>
       </c>
       <c r="S11">
-        <v>0.3080883425029697</v>
+        <v>0.2858999165284716</v>
       </c>
       <c r="T11">
-        <v>0.3080883425029698</v>
+        <v>0.2858999165284716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>14.54999833333333</v>
+        <v>0.05877866666666667</v>
       </c>
       <c r="H12">
-        <v>43.649995</v>
+        <v>0.176336</v>
       </c>
       <c r="I12">
-        <v>0.03838772412610439</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="J12">
-        <v>0.0383877241261044</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N12">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P12">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q12">
-        <v>486.228783953684</v>
+        <v>2.009882704593778</v>
       </c>
       <c r="R12">
-        <v>4376.059055583156</v>
+        <v>18.088944341344</v>
       </c>
       <c r="S12">
-        <v>0.006037587388416014</v>
+        <v>2.099072895074258E-05</v>
       </c>
       <c r="T12">
-        <v>0.006037587388416016</v>
+        <v>2.099072895074258E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>14.54999833333333</v>
+        <v>0.05877866666666667</v>
       </c>
       <c r="H13">
-        <v>43.649995</v>
+        <v>0.176336</v>
       </c>
       <c r="I13">
-        <v>0.03838772412610439</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="J13">
-        <v>0.0383877241261044</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N13">
         <v>109.157268</v>
       </c>
       <c r="O13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P13">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q13">
-        <v>529.4126891570733</v>
+        <v>2.138706223338667</v>
       </c>
       <c r="R13">
-        <v>4764.71420241366</v>
+        <v>19.248356010048</v>
       </c>
       <c r="S13">
-        <v>0.006573809451039463</v>
+        <v>2.233613062929546E-05</v>
       </c>
       <c r="T13">
-        <v>0.006573809451039466</v>
+        <v>2.233613062929546E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>14.54999833333333</v>
+        <v>0.05877866666666667</v>
       </c>
       <c r="H14">
-        <v>43.649995</v>
+        <v>0.176336</v>
       </c>
       <c r="I14">
-        <v>0.03838772412610439</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="J14">
-        <v>0.0383877241261044</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N14">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P14">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q14">
-        <v>1007.825752356029</v>
+        <v>5.612045867790222</v>
       </c>
       <c r="R14">
-        <v>9070.431771204261</v>
+        <v>50.508412810112</v>
       </c>
       <c r="S14">
-        <v>0.01251434767532244</v>
+        <v>5.861084997680427E-05</v>
       </c>
       <c r="T14">
-        <v>0.01251434767532244</v>
+        <v>5.861084997680425E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>14.54999833333333</v>
+        <v>0.05877866666666667</v>
       </c>
       <c r="H15">
-        <v>43.649995</v>
+        <v>0.176336</v>
       </c>
       <c r="I15">
-        <v>0.03838772412610439</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="J15">
-        <v>0.0383877241261044</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N15">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P15">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q15">
-        <v>49.97358432564834</v>
+        <v>0.2028317575377778</v>
       </c>
       <c r="R15">
-        <v>449.7622589308351</v>
+        <v>1.82548581784</v>
       </c>
       <c r="S15">
-        <v>0.0006205306893292008</v>
+        <v>2.118325828341681E-06</v>
       </c>
       <c r="T15">
-        <v>0.000620530689329201</v>
+        <v>2.118325828341681E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>14.54999833333333</v>
+        <v>0.05877866666666667</v>
       </c>
       <c r="H16">
-        <v>43.649995</v>
+        <v>0.176336</v>
       </c>
       <c r="I16">
-        <v>0.03838772412610439</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="J16">
-        <v>0.0383877241261044</v>
+        <v>0.0001514466568379387</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.96988266666666</v>
+        <v>77.19974499999999</v>
       </c>
       <c r="N16">
-        <v>209.909648</v>
+        <v>231.599235</v>
       </c>
       <c r="O16">
-        <v>0.3293096741153467</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="P16">
-        <v>0.3293096741153468</v>
+        <v>0.3129195615289605</v>
       </c>
       <c r="Q16">
-        <v>1018.061676183529</v>
+        <v>4.537698078106666</v>
       </c>
       <c r="R16">
-        <v>9162.55508565176</v>
+        <v>40.83928270296</v>
       </c>
       <c r="S16">
-        <v>0.01264144892199727</v>
+        <v>4.739062145275473E-05</v>
       </c>
       <c r="T16">
-        <v>0.01264144892199728</v>
+        <v>4.739062145275473E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04997166666666667</v>
+        <v>22.80106066666667</v>
       </c>
       <c r="H17">
-        <v>0.149915</v>
+        <v>68.403182</v>
       </c>
       <c r="I17">
-        <v>0.0001318418401277008</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="J17">
-        <v>0.0001318418401277009</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.41778966666667</v>
+        <v>34.19408466666667</v>
       </c>
       <c r="N17">
-        <v>100.253369</v>
+        <v>102.582254</v>
       </c>
       <c r="O17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="P17">
-        <v>0.1572791178915016</v>
+        <v>0.1386014679294276</v>
       </c>
       <c r="Q17">
-        <v>1.669942645959445</v>
+        <v>779.6613989258032</v>
       </c>
       <c r="R17">
-        <v>15.029483813635</v>
+        <v>7016.952590332228</v>
       </c>
       <c r="S17">
-        <v>2.073596831647717E-05</v>
+        <v>0.008142595118015119</v>
       </c>
       <c r="T17">
-        <v>2.073596831647718E-05</v>
+        <v>0.008142595118015119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04997166666666667</v>
+        <v>22.80106066666667</v>
       </c>
       <c r="H18">
-        <v>0.149915</v>
+        <v>68.403182</v>
       </c>
       <c r="I18">
-        <v>0.0001318418401277008</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="J18">
-        <v>0.0001318418401277009</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>36.38575599999999</v>
+        <v>36.385756</v>
       </c>
       <c r="N18">
         <v>109.157268</v>
       </c>
       <c r="O18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="P18">
-        <v>0.1712476996407596</v>
+        <v>0.1474851350016732</v>
       </c>
       <c r="Q18">
-        <v>1.818256870246667</v>
+        <v>829.6338299585308</v>
       </c>
       <c r="R18">
-        <v>16.36431183222</v>
+        <v>7466.704469626777</v>
       </c>
       <c r="S18">
-        <v>2.257761183827355E-05</v>
+        <v>0.008664495103730789</v>
       </c>
       <c r="T18">
-        <v>2.257761183827356E-05</v>
+        <v>0.008664495103730787</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04997166666666667</v>
+        <v>22.80106066666667</v>
       </c>
       <c r="H19">
-        <v>0.149915</v>
+        <v>68.403182</v>
       </c>
       <c r="I19">
-        <v>0.0001318418401277008</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="J19">
-        <v>0.0001318418401277009</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>69.26638266666667</v>
+        <v>95.47759733333334</v>
       </c>
       <c r="N19">
-        <v>207.799148</v>
+        <v>286.432792</v>
       </c>
       <c r="O19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="P19">
-        <v>0.3259986873463135</v>
+        <v>0.3870065619178576</v>
       </c>
       <c r="Q19">
-        <v>3.461356585824445</v>
+        <v>2176.990489104905</v>
       </c>
       <c r="R19">
-        <v>31.15220927242001</v>
+        <v>19592.91440194414</v>
       </c>
       <c r="S19">
-        <v>4.298026681895298E-05</v>
+        <v>0.02273596224331979</v>
       </c>
       <c r="T19">
-        <v>4.2980266818953E-05</v>
+        <v>0.02273596224331979</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04997166666666667</v>
+        <v>22.80106066666667</v>
       </c>
       <c r="H20">
-        <v>0.149915</v>
+        <v>68.403182</v>
       </c>
       <c r="I20">
-        <v>0.0001318418401277008</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="J20">
-        <v>0.0001318418401277009</v>
+        <v>0.05874826031540393</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.434611</v>
+        <v>3.450771666666667</v>
       </c>
       <c r="N20">
-        <v>10.303833</v>
+        <v>10.352315</v>
       </c>
       <c r="O20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="P20">
-        <v>0.01616482100607856</v>
+        <v>0.01398727362208118</v>
       </c>
       <c r="Q20">
-        <v>0.1716332360216667</v>
+        <v>78.68125411848112</v>
       </c>
       <c r="R20">
-        <v>1.544699124195</v>
+        <v>708.1312870663301</v>
       </c>
       <c r="S20">
-        <v>2.131199746776309E-06</v>
+        <v>0.0008217279918528082</v>
       </c>
       <c r="T20">
-        <v>2.13119974677631E-06</v>
+        <v>0.0008217279918528082</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>22.80106066666667</v>
+      </c>
+      <c r="H21">
+        <v>68.403182</v>
+      </c>
+      <c r="I21">
+        <v>0.05874826031540393</v>
+      </c>
+      <c r="J21">
+        <v>0.05874826031540393</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N21">
+        <v>231.599235</v>
+      </c>
+      <c r="O21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P21">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q21">
+        <v>1760.236069196197</v>
+      </c>
+      <c r="R21">
+        <v>15842.12462276577</v>
+      </c>
+      <c r="S21">
+        <v>0.01838347985848543</v>
+      </c>
+      <c r="T21">
+        <v>0.01838347985848543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.171288</v>
+      </c>
+      <c r="H22">
+        <v>0.513864</v>
+      </c>
+      <c r="I22">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="J22">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>34.19408466666667</v>
+      </c>
+      <c r="N22">
+        <v>102.582254</v>
+      </c>
+      <c r="O22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="P22">
+        <v>0.1386014679294276</v>
+      </c>
+      <c r="Q22">
+        <v>5.857036374384</v>
+      </c>
+      <c r="R22">
+        <v>52.713327369456</v>
+      </c>
+      <c r="S22">
+        <v>6.116947158574759E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.116947158574759E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.171288</v>
+      </c>
+      <c r="H23">
+        <v>0.513864</v>
+      </c>
+      <c r="I23">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="J23">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>36.385756</v>
+      </c>
+      <c r="N23">
+        <v>109.157268</v>
+      </c>
+      <c r="O23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="P23">
+        <v>0.1474851350016732</v>
+      </c>
+      <c r="Q23">
+        <v>6.232443373728</v>
+      </c>
+      <c r="R23">
+        <v>56.091990363552</v>
+      </c>
+      <c r="S23">
+        <v>6.509013150855348E-05</v>
+      </c>
+      <c r="T23">
+        <v>6.509013150855347E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.171288</v>
+      </c>
+      <c r="H24">
+        <v>0.513864</v>
+      </c>
+      <c r="I24">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="J24">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>95.47759733333334</v>
+      </c>
+      <c r="N24">
+        <v>286.432792</v>
+      </c>
+      <c r="O24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="P24">
+        <v>0.3870065619178576</v>
+      </c>
+      <c r="Q24">
+        <v>16.354166692032</v>
+      </c>
+      <c r="R24">
+        <v>147.187500228288</v>
+      </c>
+      <c r="S24">
+        <v>0.0001707989622792881</v>
+      </c>
+      <c r="T24">
+        <v>0.0001707989622792881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.04997166666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.149915</v>
-      </c>
-      <c r="I21">
-        <v>0.0001318418401277008</v>
-      </c>
-      <c r="J21">
-        <v>0.0001318418401277009</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>69.96988266666666</v>
-      </c>
-      <c r="N21">
-        <v>209.909648</v>
-      </c>
-      <c r="O21">
-        <v>0.3293096741153467</v>
-      </c>
-      <c r="P21">
-        <v>0.3293096741153468</v>
-      </c>
-      <c r="Q21">
-        <v>3.496511653324445</v>
-      </c>
-      <c r="R21">
-        <v>31.46860487992</v>
-      </c>
-      <c r="S21">
-        <v>4.341679340722079E-05</v>
-      </c>
-      <c r="T21">
-        <v>4.341679340722082E-05</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.171288</v>
+      </c>
+      <c r="H25">
+        <v>0.513864</v>
+      </c>
+      <c r="I25">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="J25">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.450771666666667</v>
+      </c>
+      <c r="N25">
+        <v>10.352315</v>
+      </c>
+      <c r="O25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="P25">
+        <v>0.01398727362208118</v>
+      </c>
+      <c r="Q25">
+        <v>0.59107577724</v>
+      </c>
+      <c r="R25">
+        <v>5.319681995160001</v>
+      </c>
+      <c r="S25">
+        <v>6.17305248760871E-06</v>
+      </c>
+      <c r="T25">
+        <v>6.17305248760871E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.171288</v>
+      </c>
+      <c r="H26">
+        <v>0.513864</v>
+      </c>
+      <c r="I26">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="J26">
+        <v>0.0004413335046126176</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>77.19974499999999</v>
+      </c>
+      <c r="N26">
+        <v>231.599235</v>
+      </c>
+      <c r="O26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="P26">
+        <v>0.3129195615289605</v>
+      </c>
+      <c r="Q26">
+        <v>13.22338992156</v>
+      </c>
+      <c r="R26">
+        <v>119.01050929404</v>
+      </c>
+      <c r="S26">
+        <v>0.0001381018867514198</v>
+      </c>
+      <c r="T26">
+        <v>0.0001381018867514198</v>
       </c>
     </row>
   </sheetData>
